--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Financial/Business.Miscellaneous.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Financial/Business.Miscellaneous.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Financial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC23CC8-76D0-42E4-BC41-5239E58E17B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4372FDE8-26FB-46FD-9C97-ABA23F6CBE22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12315" windowHeight="13035" tabRatio="497" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="5" r:id="rId1"/>
@@ -40,12 +40,20 @@
     <definedName name="solver_typ" hidden="1">3</definedName>
     <definedName name="solver_val" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>This spreadsheet shows examples of creating and using interest rate curves.</t>
   </si>
@@ -57,9 +65,6 @@
   </si>
   <si>
     <t>New create asset interface. Not backward compatible</t>
-  </si>
-  <si>
-    <t>This text was added by using code</t>
   </si>
   <si>
     <t>Using BarraFunc</t>
@@ -2357,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="B3:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="12.75"/>
@@ -2380,18 +2385,8 @@
     <col min="14" max="16384" width="7.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="6" customHeight="1"/>
-    <row r="4" spans="1:13" ht="9.75" customHeight="1">
+    <row r="3" spans="2:13" ht="6" customHeight="1"/>
+    <row r="4" spans="2:13" ht="9.75" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2404,10 +2399,10 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="2:13" ht="30" customHeight="1" thickBot="1">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2420,7 +2415,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="13.5" thickTop="1">
+    <row r="6" spans="2:13" ht="13.5" thickTop="1">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2434,10 +2429,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="2:13" ht="15.75">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -2450,7 +2445,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="2:13">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
@@ -2464,7 +2459,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="2:13">
       <c r="B9" s="7"/>
       <c r="C9" s="9" t="s">
         <v>0</v>
@@ -2482,15 +2477,13 @@
       <c r="L9" s="7"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="2:13">
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="16">
-        <v>40149</v>
-      </c>
+      <c r="G10" s="16"/>
       <c r="H10" s="7" t="s">
         <v>3</v>
       </c>
@@ -2500,7 +2493,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="2:13">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="10"/>
@@ -2514,7 +2507,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="2:13">
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>1</v>
@@ -2530,10 +2523,10 @@
       <c r="L12" s="7"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="2:13">
       <c r="B13" s="7"/>
       <c r="C13" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -2546,7 +2539,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="2:13">
       <c r="B14" s="7"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2560,7 +2553,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="2:13">
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
       <c r="D15" s="10"/>
@@ -2574,7 +2567,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="2:13">
       <c r="B16" s="7"/>
       <c r="C16" s="12"/>
       <c r="D16" s="10"/>
@@ -3067,7 +3060,7 @@
     <row r="51" spans="2:13">
       <c r="B51" s="14" t="str">
         <f ca="1">"Last Update "&amp;TEXT(TODAY(),"dd-mmm-yy")</f>
-        <v>Last Update 25-Apr-18</v>
+        <v>Last Update 24-Jun-19</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3160,7 +3153,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -3196,7 +3189,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="30"/>
       <c r="E5" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -3231,23 +3224,23 @@
       <c r="B7" s="30"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
       <c r="H7" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7" s="36"/>
       <c r="N7" s="37"/>
@@ -3275,26 +3268,26 @@
       <c r="B9" s="30"/>
       <c r="C9" s="39"/>
       <c r="D9" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="43" t="s">
         <v>10</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>11</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="41"/>
       <c r="H9" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="43" t="s">
         <v>10</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>11</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="39"/>
       <c r="L9" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="43" t="s">
         <v>10</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>11</v>
       </c>
       <c r="N9" s="40"/>
       <c r="O9" s="30"/>
@@ -3304,7 +3297,7 @@
       <c r="B10" s="30"/>
       <c r="C10" s="39"/>
       <c r="D10" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="51">
         <v>39580</v>
@@ -3312,7 +3305,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="41"/>
       <c r="H10" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="51">
         <v>39580</v>
@@ -3329,7 +3322,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="39"/>
       <c r="D11" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="51">
         <v>40650</v>
@@ -3337,7 +3330,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="41"/>
       <c r="H11" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="80">
         <v>7</v>
@@ -3354,7 +3347,7 @@
       <c r="B12" s="30"/>
       <c r="C12" s="41"/>
       <c r="D12" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="78">
         <v>7.0000000000000007E-2</v>
@@ -3375,7 +3368,7 @@
       <c r="B13" s="30"/>
       <c r="C13" s="41"/>
       <c r="D13" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="78">
         <v>7.0000000000000007E-2</v>
@@ -3396,7 +3389,7 @@
       <c r="B14" s="30"/>
       <c r="C14" s="41"/>
       <c r="D14" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="45">
         <v>2</v>
@@ -3434,20 +3427,20 @@
       <c r="B16" s="30"/>
       <c r="C16" s="41"/>
       <c r="D16" s="42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
       <c r="H16" s="30"/>
       <c r="I16" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="41"/>
       <c r="L16" s="30"/>
       <c r="M16" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16" s="40"/>
       <c r="O16" s="30"/>
@@ -3457,7 +3450,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="41"/>
       <c r="D17" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="54">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.BondPrice(E10,E11,E12,E13,E14,FALSE)</f>
@@ -3466,7 +3459,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="41"/>
       <c r="H17" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="48">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.BizDayRoll(I10,I11,Holidays)</f>
@@ -3484,7 +3477,7 @@
       <c r="B18" s="30"/>
       <c r="C18" s="41"/>
       <c r="D18" s="53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="54">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.RBABondPrice(E10,E11,E12,E13)</f>
@@ -3506,7 +3499,7 @@
       <c r="B19" s="30"/>
       <c r="C19" s="41"/>
       <c r="D19" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="51">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.NextCouponDate(E10,E11,E14)</f>
@@ -3528,7 +3521,7 @@
       <c r="B20" s="30"/>
       <c r="C20" s="41"/>
       <c r="D20" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="51">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.lastCouponDate(E10,E11,E14)</f>
@@ -3567,13 +3560,13 @@
       <c r="B22" s="30"/>
       <c r="C22" s="38"/>
       <c r="D22" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="64"/>
       <c r="G22" s="65"/>
       <c r="H22" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" s="36"/>
       <c r="J22" s="37"/>
@@ -3605,18 +3598,18 @@
       <c r="B24" s="30"/>
       <c r="C24" s="41"/>
       <c r="D24" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>10</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>11</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="39"/>
       <c r="H24" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="43" t="s">
         <v>10</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>11</v>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="39"/>
@@ -3630,7 +3623,7 @@
       <c r="B25" s="30"/>
       <c r="C25" s="41"/>
       <c r="D25" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="30"/>
@@ -3649,7 +3642,7 @@
       <c r="B26" s="30"/>
       <c r="C26" s="41"/>
       <c r="D26" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="30"/>
@@ -3668,7 +3661,7 @@
       <c r="B27" s="30"/>
       <c r="C27" s="41"/>
       <c r="D27" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="30"/>
@@ -3687,7 +3680,7 @@
       <c r="B28" s="30"/>
       <c r="C28" s="41"/>
       <c r="D28" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="30"/>
@@ -3706,7 +3699,7 @@
       <c r="B29" s="30"/>
       <c r="C29" s="41"/>
       <c r="D29" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="30"/>
@@ -3743,13 +3736,13 @@
       <c r="C31" s="41"/>
       <c r="D31" s="43"/>
       <c r="E31" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="39"/>
       <c r="H31" s="30"/>
       <c r="I31" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" s="40"/>
       <c r="K31" s="39"/>
@@ -3797,13 +3790,13 @@
       <c r="B34" s="30"/>
       <c r="C34" s="65"/>
       <c r="D34" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="37"/>
       <c r="G34" s="65"/>
       <c r="H34" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="37"/>
@@ -3835,18 +3828,18 @@
       <c r="B36" s="30"/>
       <c r="C36" s="39"/>
       <c r="D36" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="43" t="s">
         <v>10</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>11</v>
       </c>
       <c r="F36" s="40"/>
       <c r="G36" s="39"/>
       <c r="H36" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="43" t="s">
         <v>10</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>11</v>
       </c>
       <c r="J36" s="40"/>
       <c r="K36" s="39"/>
@@ -3860,7 +3853,7 @@
       <c r="B37" s="30"/>
       <c r="C37" s="39"/>
       <c r="D37" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="40"/>
@@ -3879,7 +3872,7 @@
       <c r="B38" s="30"/>
       <c r="C38" s="39"/>
       <c r="D38" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="40"/>
@@ -3898,7 +3891,7 @@
       <c r="B39" s="30"/>
       <c r="C39" s="39"/>
       <c r="D39" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="40"/>
@@ -3917,7 +3910,7 @@
       <c r="B40" s="30"/>
       <c r="C40" s="39"/>
       <c r="D40" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="40"/>
@@ -3936,7 +3929,7 @@
       <c r="B41" s="30"/>
       <c r="C41" s="39"/>
       <c r="D41" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="40"/>
@@ -3973,13 +3966,13 @@
       <c r="C43" s="39"/>
       <c r="D43" s="30"/>
       <c r="E43" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="40"/>
       <c r="G43" s="39"/>
       <c r="H43" s="30"/>
       <c r="I43" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" s="40"/>
       <c r="K43" s="39"/>
@@ -4044,13 +4037,13 @@
       <c r="B47" s="30"/>
       <c r="C47" s="38"/>
       <c r="D47" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="37"/>
       <c r="G47" s="38"/>
       <c r="H47" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I47" s="36"/>
       <c r="J47" s="37"/>
@@ -4082,18 +4075,18 @@
       <c r="B49" s="30"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="43" t="s">
         <v>10</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>11</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="41"/>
       <c r="H49" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="43" t="s">
         <v>10</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>11</v>
       </c>
       <c r="J49" s="40"/>
       <c r="K49" s="39"/>
@@ -4107,18 +4100,18 @@
       <c r="B50" s="30"/>
       <c r="C50" s="41"/>
       <c r="D50" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="45" t="s">
         <v>15</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>16</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="41"/>
       <c r="H50" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="45" t="s">
         <v>15</v>
-      </c>
-      <c r="I50" s="45" t="s">
-        <v>16</v>
       </c>
       <c r="J50" s="40"/>
       <c r="K50" s="39"/>
@@ -4167,13 +4160,13 @@
       <c r="C53" s="41"/>
       <c r="D53" s="30"/>
       <c r="E53" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="41"/>
       <c r="H53" s="30"/>
       <c r="I53" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" s="40"/>
       <c r="K53" s="39"/>
@@ -6325,7 +6318,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="84">
         <v>39537</v>
@@ -6333,30 +6326,30 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="84">
         <f ca="1">TODAY() + 365 * 3  + 12</f>
-        <v>44322</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="84">
         <v>39568</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="str">
         <f t="array" ref="F4:H21">_xll.HLV5r3.Financial.Cache.GetAssetConfigurationData("AUD","IRswap","3Y",G3)</f>
@@ -6371,10 +6364,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="str">
         <v>Instrument.Currency</v>
@@ -6388,10 +6381,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="88"/>
       <c r="F6" t="str">
@@ -6406,10 +6399,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="str">
         <v>Instrument.InstrumentNodeItem.SpotDate.periodMultiplier</v>
@@ -6423,11 +6416,11 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="86"/>
       <c r="D8" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="str">
         <v>Instrument.InstrumentNodeItem.SpotDate.period</v>
@@ -6441,10 +6434,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="str">
         <f t="array" ref="D9:D61">_xll.HLV5r3.Financial.Cache.SupportedProductTypes()</f>
@@ -6476,10 +6469,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="str">
         <v>InflationSwap</v>
@@ -6496,10 +6489,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="str">
         <v>CrossCurrencySwap</v>
@@ -6883,8 +6876,8 @@
         <f ca="1"/>
         <v>41729</v>
       </c>
-      <c r="D40" t="e">
-        <v>#N/A</v>
+      <c r="D40" t="str">
+        <v>CommodityForward</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7012,7 +7005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -7024,7 +7017,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
